--- a/aws_products.xlsx
+++ b/aws_products.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:08</t>
+          <t>2024-07-17 17:05:33</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:14</t>
+          <t>2024-07-17 17:05:39</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:20</t>
+          <t>2024-07-17 17:05:45</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:27</t>
+          <t>2024-07-17 17:05:51</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:32</t>
+          <t>2024-07-17 17:05:57</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:38</t>
+          <t>2024-07-17 17:06:03</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:44</t>
+          <t>2024-07-17 17:06:09</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:44</t>
+          <t>2024-07-17 17:06:09</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:44</t>
+          <t>2024-07-17 17:06:09</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:44</t>
+          <t>2024-07-17 17:06:09</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-07-16 11:45:44</t>
+          <t>2024-07-17 17:06:09</t>
         </is>
       </c>
     </row>
